--- a/audiofiles/KORE121/ch6/KORE121_ch6_2.xlsx
+++ b/audiofiles/KORE121/ch6/KORE121_ch6_2.xlsx
@@ -997,7 +997,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>케빈: 팅팅 씨, 어디에 가요?</t>
+          <t>팅팅 씨, 어디에 가요?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1007,14 +1007,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>케빈팅팅씨어디에가요.mp3</t>
+          <t>팅팅씨어디에가요.mp3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>팅팅: 식당에 가요. 식당에서 친구하고 밥을 먹어요.</t>
+          <t>식당에 가요. 식당에서 친구하고 밥을 먹어요.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>팅팅식당에가요식당에서친구하고밥을먹어요.mp3</t>
+          <t>식당에가요식당에서친구하고밥을먹어요.mp3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>케빈: 아, 그래요?</t>
+          <t>아, 그래요?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>케빈아그래요.mp3</t>
+          <t>아그래요.mp3</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>팅팅: 케빈 씨는 오늘 뭐 해요?</t>
+          <t>케빈 씨는 오늘 뭐 해요?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1058,14 +1058,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>팅팅케빈씨는오늘뭐해요.mp3</t>
+          <t>케빈씨는오늘뭐해요.mp3</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>케빈: 저는 집에서 쉬어요.</t>
+          <t>저는 집에서 쉬어요.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>케빈저는집에서쉬어요.mp3</t>
+          <t>저는집에서쉬어요.mp3</t>
         </is>
       </c>
     </row>

--- a/audiofiles/KORE121/ch6/KORE121_ch6_2.xlsx
+++ b/audiofiles/KORE121/ch6/KORE121_ch6_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>here</t>
+          <t>Here</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>over there</t>
+          <t>Over there</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>There</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>where</t>
+          <t>Where</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>School</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>restaurant</t>
+          <t>Restaurant</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>coffee shop</t>
+          <t>Coffee shop</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>Market</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>Office, company</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>department store</t>
+          <t>Department store</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>embassy</t>
+          <t>Embassy</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>airport</t>
+          <t>Airport</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>library</t>
+          <t>Library</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>restroom</t>
+          <t>Restroom</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bookstore</t>
+          <t>Bookstore</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>Bank</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>house/home</t>
+          <t>House, home</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>theater</t>
+          <t>Theater</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -793,287 +793,236 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>사다</t>
+          <t>숙제를 하다</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>to buy</t>
+          <t>To do homework</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>사다.mp3</t>
+          <t>숙제를하다.mp3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>보다</t>
+          <t>매일</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>to see/watch</t>
+          <t>Every day</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>보다.mp3</t>
+          <t>매일.mp3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>먹다</t>
+          <t>그래서</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>to eat</t>
+          <t>So, therefore</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>먹다.mp3</t>
+          <t>그래서.mp3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>읽다</t>
+          <t>자주</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>to read</t>
+          <t>Often</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>읽다.mp3</t>
+          <t>자주.mp3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>마시다</t>
+          <t>수영</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>to drink</t>
+          <t>Swimming</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>마시다.mp3</t>
+          <t>수영.mp3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>만나다</t>
+          <t>어디에 가요?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>to meet</t>
+          <t>Where are you going?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>만나다.mp3</t>
+          <t>어디에가요.mp3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>공부하다</t>
+          <t>학교에 가요.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>to study</t>
+          <t>I’m going to school.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>공부하다.mp3</t>
+          <t>학교에가요.mp3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>요리하다</t>
+          <t>도서관에서 뭐 해요?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>to cook</t>
+          <t>What do you do at the library?</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>요리하다.mp3</t>
+          <t>도서관에서뭐해요.mp3</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>어디에 가요?</t>
+          <t>도서관에서 숙제를 해요.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Where are you going?</t>
+          <t>I do homework at the library.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>어디에가요.mp3</t>
+          <t>도서관에서숙제를해요.mp3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>학교에 가요.</t>
+          <t>팅팅 씨, 어디에 가요?</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>I’m going to school.</t>
+          <t>Ting-Ting, where are you going?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>학교에가요.mp3</t>
+          <t>팅팅씨어디에가요.mp3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>도서관에서 뭐 해요?</t>
+          <t>식당에 가요. 식당에서 친구하고 밥을 먹어요.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>What do you do at the library?</t>
+          <t>I’m going to a restaurant. I’m going to eat with my friends.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>도서관에서뭐해요.mp3</t>
+          <t>식당에가요식당에서친구하고밥을먹어요.mp3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>도서관에서 숙제를 해요.</t>
+          <t>아, 그래요?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I do homework at the library.</t>
+          <t>Oh, really?</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>도서관에서숙제를해요.mp3</t>
+          <t>아그래요.mp3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>팅팅 씨, 어디에 가요?</t>
+          <t>케빈 씨는 오늘 뭐 해요?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tingting, where are you going?</t>
+          <t>What are you going to do today, Kevin?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>팅팅씨어디에가요.mp3</t>
+          <t>케빈씨는오늘뭐해요.mp3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>식당에 가요. 식당에서 친구하고 밥을 먹어요.</t>
+          <t>저는 집에서 쉬어요.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>I’m going to a restaurant. I’m going to eat with my friends.</t>
+          <t>I’m going to rest at home.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>식당에가요식당에서친구하고밥을먹어요.mp3</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>아, 그래요?</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Oh, really?</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>아그래요.mp3</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>케빈 씨는 오늘 뭐 해요?</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>What are you going to do today, Kevin?</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>케빈씨는오늘뭐해요.mp3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>저는 집에서 쉬어요.</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>I’m going to rest at home.</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>저는집에서쉬어요.mp3</t>
         </is>
